--- a/withWeek/各种准确性、一致性数据.xlsx
+++ b/withWeek/各种准确性、一致性数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yelo_Pasge\MathModeling\withWeek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F0B306-E6B2-4DAE-91A3-3F9CBAE9914D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF165BA-9E4E-40DA-8A6C-4CD7DF1D348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>只使用评委分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,27 +55,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同时保证二者</t>
+    <t>fame = 1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fame = 1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fame = 1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fame = 1.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fame = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fame = 1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fame = 1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fame = 1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fame = 1.4</t>
+  </si>
+  <si>
+    <t>考虑weeks参数，不考虑表演水平对观众的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不考虑weeks参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑舞伴人气的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.62% (43.18%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35.23% (57.95%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35.23% (57.20%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.85%(57.58%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.7%（42.42%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,12 +150,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -405,86 +440,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
       <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
       <c r="N2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
         <v>5</v>
@@ -493,61 +529,173 @@
         <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>0.4773</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.8901</v>
+      </c>
+      <c r="G4">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="L4">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="M4">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="O4">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="P4">
+        <v>0.83720000000000006</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.47389999999999999</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>0.70279999999999998</v>
+      </c>
       <c r="D5" s="1">
+        <v>0.6865</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.68279999999999996</v>
       </c>
+      <c r="I5" s="1">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.6865</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.6865</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.6865</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0.86560000000000004</v>
       </c>
+      <c r="C6">
+        <v>0.82709999999999995</v>
+      </c>
       <c r="D6">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="G6">
         <v>0.82920000000000005</v>
+      </c>
+      <c r="I6">
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="L6">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="M6">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.82679999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.82909999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/withWeek/各种准确性、一致性数据.xlsx
+++ b/withWeek/各种准确性、一致性数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yelo_Pasge\MathModeling\withWeek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF165BA-9E4E-40DA-8A6C-4CD7DF1D348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E81774-F5E2-4293-B7BE-56A1B78123A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -159,7 +159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,16 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>11</v>
@@ -476,13 +474,8 @@
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -532,7 +525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -570,7 +563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -608,7 +601,7 @@
         <v>0.83720000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -621,32 +614,47 @@
       <c r="D5" s="1">
         <v>0.6865</v>
       </c>
+      <c r="E5" s="1">
+        <v>0.61570000000000003</v>
+      </c>
       <c r="F5" s="1">
         <v>0.70950000000000002</v>
       </c>
       <c r="G5" s="1">
         <v>0.68279999999999996</v>
       </c>
+      <c r="H5" s="1">
+        <v>0.63180000000000003</v>
+      </c>
       <c r="I5" s="1">
         <v>0.70950000000000002</v>
       </c>
       <c r="J5" s="1">
         <v>0.6865</v>
       </c>
+      <c r="K5" s="1">
+        <v>0.65200000000000002</v>
+      </c>
       <c r="L5" s="1">
         <v>0.69630000000000003</v>
       </c>
       <c r="M5" s="1">
         <v>0.6865</v>
       </c>
+      <c r="N5" s="1">
+        <v>0.6321</v>
+      </c>
       <c r="O5" s="1">
         <v>0.68989999999999996</v>
       </c>
       <c r="P5" s="1">
         <v>0.6865</v>
       </c>
+      <c r="Q5" s="1">
+        <v>0.6321</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -659,32 +667,47 @@
       <c r="D6">
         <v>0.82869999999999999</v>
       </c>
+      <c r="E6">
+        <v>0.82599999999999996</v>
+      </c>
       <c r="F6">
         <v>0.82740000000000002</v>
       </c>
       <c r="G6">
         <v>0.82920000000000005</v>
       </c>
+      <c r="H6">
+        <v>0.82489999999999997</v>
+      </c>
       <c r="I6">
         <v>0.82740000000000002</v>
       </c>
       <c r="J6">
         <v>0.82820000000000005</v>
       </c>
+      <c r="K6">
+        <v>0.82589999999999997</v>
+      </c>
       <c r="L6">
         <v>0.82689999999999997</v>
       </c>
       <c r="M6">
         <v>0.82869999999999999</v>
       </c>
+      <c r="N6">
+        <v>0.82599999999999996</v>
+      </c>
       <c r="O6">
         <v>0.82679999999999998</v>
       </c>
       <c r="P6">
         <v>0.82909999999999995</v>
       </c>
+      <c r="Q6">
+        <v>0.82730000000000004</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
